--- a/biology/Botanique/Ceanothus_americanus/Ceanothus_americanus.xlsx
+++ b/biology/Botanique/Ceanothus_americanus/Ceanothus_americanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceanothus americanus, le Céanothe d'Amérique, est une espèce de plantes à fleurs dicotylédones de la famille des Rhamnaceae, indigène d'Amérique du Nord.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (10 avril 2020)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 avril 2020) :
 Ceanothus americanus var. americanus
 Ceanothus americanus var. glaber Alph. Wood
 Ceanothus americanus intermedius (Pursh) Torr. &amp; A. Gray
@@ -569,7 +586,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céanothe d'Amérique est un arbuste au tiges ramifiées qui atteint 50 à 100 cm de hauteur. Ses feuilles ovées sont alternes. Les fleurs blanches forment des panicules. Les fruits sont des capsules déhiscentes. 
 </t>
@@ -602,11 +621,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat et répartition
-Le Céanothe d'Amérique croit dans les milieux secs et ouverts comme les alvars, les berges et les clairières[3].
-Son aire de répartition inclut le sud du Québec et de l'Ontario, ainsi que les états américains suivants: Alabama, Arkansas, Connecticut, Delaware, Floride, Géorgie, Illinois Indiana, Iowa, Kansas, Louisiane, Maine, Maryland, Massachusetts, Michigan, Minnesota, Mississippi, Missouri, Nebraska, New Hampshire, New Jersey, New York, Caroline du sud et du nord, Ohio, Oklahoma, Pennsylvanie, Rhode Island, Texas, Vermont, Virginie-Occidentale; Wisconsin et Virginie[4].
-Espèces associées
-Le Céanothe d'Amérique est la plante hôte de différentes espèces de papillons. La chenille de l'Hespérie tachetée (Erynnis martialis), ainsi que celles d'espèces du genre Celastrina, par exemple C. neglecta, se nourrissent de ses feuilles[5].
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe d'Amérique croit dans les milieux secs et ouverts comme les alvars, les berges et les clairières.
+Son aire de répartition inclut le sud du Québec et de l'Ontario, ainsi que les états américains suivants: Alabama, Arkansas, Connecticut, Delaware, Floride, Géorgie, Illinois Indiana, Iowa, Kansas, Louisiane, Maine, Maryland, Massachusetts, Michigan, Minnesota, Mississippi, Missouri, Nebraska, New Hampshire, New Jersey, New York, Caroline du sud et du nord, Ohio, Oklahoma, Pennsylvanie, Rhode Island, Texas, Vermont, Virginie-Occidentale; Wisconsin et Virginie.
 </t>
         </is>
       </c>
@@ -632,12 +654,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces associées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe d'Amérique est la plante hôte de différentes espèces de papillons. La chenille de l'Hespérie tachetée (Erynnis martialis), ainsi que celles d'espèces du genre Celastrina, par exemple C. neglecta, se nourrissent de ses feuilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceanothus_americanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceanothus_americanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Céanothe d'Amérique est susceptible d'être désigné protégé au Québec, où il est confiné au bassin versant de la vallée de la rivière des Outaouais[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céanothe d'Amérique est susceptible d'être désigné protégé au Québec, où il est confiné au bassin versant de la vallée de la rivière des Outaouais.
 </t>
         </is>
       </c>
